--- a/Data/Bilançolar/AGHOL.xlsx
+++ b/Data/Bilançolar/AGHOL.xlsx
@@ -13155,7 +13155,7 @@
         <v>71306664000</v>
       </c>
       <c r="C73" t="n">
-        <v>28213975000</v>
+        <v>27738790000</v>
       </c>
       <c r="D73" t="n">
         <v>82740872000</v>
@@ -13330,7 +13330,7 @@
         <v>-49244017000</v>
       </c>
       <c r="C74" t="n">
-        <v>-19732380000</v>
+        <v>-19302432000</v>
       </c>
       <c r="D74" t="n">
         <v>-58192863000</v>
@@ -13680,7 +13680,7 @@
         <v>22062647000</v>
       </c>
       <c r="C76" t="n">
-        <v>8481595000</v>
+        <v>8436358000</v>
       </c>
       <c r="D76" t="n">
         <v>24548009000</v>
@@ -14730,7 +14730,7 @@
         <v>22062647000</v>
       </c>
       <c r="C82" t="n">
-        <v>8481595000</v>
+        <v>8436358000</v>
       </c>
       <c r="D82" t="n">
         <v>24548009000</v>
@@ -14905,7 +14905,7 @@
         <v>-11515022000</v>
       </c>
       <c r="C83" t="n">
-        <v>-4991273000</v>
+        <v>-4885403000</v>
       </c>
       <c r="D83" t="n">
         <v>-13958170000</v>
@@ -15080,7 +15080,7 @@
         <v>-3041232000</v>
       </c>
       <c r="C84" t="n">
-        <v>-1424154000</v>
+        <v>-1392025000</v>
       </c>
       <c r="D84" t="n">
         <v>-3657526000</v>
@@ -15430,7 +15430,7 @@
         <v>2753416000</v>
       </c>
       <c r="C86" t="n">
-        <v>739143000</v>
+        <v>737597000</v>
       </c>
       <c r="D86" t="n">
         <v>2091454000</v>
@@ -15605,7 +15605,7 @@
         <v>-2994254000</v>
       </c>
       <c r="C87" t="n">
-        <v>-1557676000</v>
+        <v>-1554317000</v>
       </c>
       <c r="D87" t="n">
         <v>-2978625000</v>
@@ -15955,7 +15955,7 @@
         <v>7254198000</v>
       </c>
       <c r="C89" t="n">
-        <v>1243006000</v>
+        <v>1337581000</v>
       </c>
       <c r="D89" t="n">
         <v>6031985000</v>
@@ -16130,7 +16130,7 @@
         <v>7495036000</v>
       </c>
       <c r="C90" t="n">
-        <v>2061539000</v>
+        <v>2154301000</v>
       </c>
       <c r="D90" t="n">
         <v>6919156000</v>
@@ -16305,7 +16305,7 @@
         <v>1196399000</v>
       </c>
       <c r="C91" t="n">
-        <v>49311000</v>
+        <v>49141000</v>
       </c>
       <c r="D91" t="n">
         <v>1748068000</v>
@@ -16480,7 +16480,7 @@
         <v>-603879000</v>
       </c>
       <c r="C92" t="n">
-        <v>-573907000</v>
+        <v>-573886000</v>
       </c>
       <c r="D92" t="n">
         <v>-336228000</v>
@@ -17005,7 +17005,7 @@
         <v>7634262000</v>
       </c>
       <c r="C95" t="n">
-        <v>623511000</v>
+        <v>717937000</v>
       </c>
       <c r="D95" t="n">
         <v>6892005000</v>
@@ -17180,7 +17180,7 @@
         <v>3719075000</v>
       </c>
       <c r="C96" t="n">
-        <v>2201299000</v>
+        <v>2195837000</v>
       </c>
       <c r="D96" t="n">
         <v>5005048000</v>
@@ -17355,7 +17355,7 @@
         <v>-5963710000</v>
       </c>
       <c r="C97" t="n">
-        <v>-2781758000</v>
+        <v>-2764615000</v>
       </c>
       <c r="D97" t="n">
         <v>-6915010000</v>
@@ -17530,7 +17530,7 @@
         <v>592520000</v>
       </c>
       <c r="C98" t="n">
-        <v>-524596000</v>
+        <v>-524745000</v>
       </c>
       <c r="D98" t="n">
         <v>1411840000</v>
@@ -17705,7 +17705,7 @@
         <v>5389627000</v>
       </c>
       <c r="C99" t="n">
-        <v>43052000</v>
+        <v>149159000</v>
       </c>
       <c r="D99" t="n">
         <v>4982043000</v>
@@ -17880,7 +17880,7 @@
         <v>-1745652000</v>
       </c>
       <c r="C100" t="n">
-        <v>-182567000</v>
+        <v>-201530000</v>
       </c>
       <c r="D100" t="n">
         <v>-1397926000</v>
@@ -18230,7 +18230,7 @@
         <v>-38908000</v>
       </c>
       <c r="C102" t="n">
-        <v>329069000</v>
+        <v>310106000</v>
       </c>
       <c r="D102" t="n">
         <v>-162344000</v>
@@ -18580,7 +18580,7 @@
         <v>3643975000</v>
       </c>
       <c r="C104" t="n">
-        <v>-139515000</v>
+        <v>-52371000</v>
       </c>
       <c r="D104" t="n">
         <v>3584117000</v>
@@ -18930,7 +18930,7 @@
         <v>52621000</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>-10955000</v>
       </c>
       <c r="D106" t="n">
         <v>-42188000</v>
@@ -19105,7 +19105,7 @@
         <v>3696596000</v>
       </c>
       <c r="C107" t="n">
-        <v>-139515000</v>
+        <v>-63326000</v>
       </c>
       <c r="D107" t="n">
         <v>3541929000</v>
@@ -19455,7 +19455,7 @@
         <v>2184005000</v>
       </c>
       <c r="C109" t="n">
-        <v>-62085000</v>
+        <v>-23989000</v>
       </c>
       <c r="D109" t="n">
         <v>2251146000</v>
@@ -19630,7 +19630,7 @@
         <v>1512591000</v>
       </c>
       <c r="C110" t="n">
-        <v>-77430000</v>
+        <v>-39337000</v>
       </c>
       <c r="D110" t="n">
         <v>1290783000</v>
@@ -20855,7 +20855,7 @@
         <v>-5963710000</v>
       </c>
       <c r="C117" t="n">
-        <v>-2781758000</v>
+        <v>-2764615000</v>
       </c>
       <c r="D117" t="n">
         <v>-6915010000</v>
